--- a/table/A2C.xlsx
+++ b/table/A2C.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>No transfer</t>
   </si>
@@ -84,9 +84,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -389,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +405,10 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -425,8 +427,26 @@
       <c r="G1">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>20</v>
+      </c>
+      <c r="N1">
+        <v>25</v>
+      </c>
+      <c r="O1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,8 +468,35 @@
       <c r="G2" s="1">
         <v>0.39394526795895102</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>B2*100</f>
+        <v>30.986316989737698</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K7" si="0">C2*100</f>
+        <v>33.971493728620302</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L7" si="1">D2*100</f>
+        <v>35.949828962371697</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:M7" si="2">E2*100</f>
+        <v>37.783352337514295</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N7" si="3">F2*100</f>
+        <v>38.270239452679597</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O7" si="4">G2*100</f>
+        <v>39.394526795895104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -471,8 +518,35 @@
       <c r="G3" s="1">
         <v>0.20202964652223501</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J7" si="5">B3*100</f>
+        <v>17.892816419612302</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>18.688711516533598</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>18.790193842645401</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="2"/>
+        <v>19.686431014823299</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="3"/>
+        <v>19.385404789053602</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="4"/>
+        <v>20.2029646522235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -494,8 +568,35 @@
       <c r="G4" s="1">
         <v>0.36663625997719501</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="5"/>
+        <v>25.192702394526801</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>30.141391106043301</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>32.5313568985177</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="2"/>
+        <v>34.297605473204101</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="3"/>
+        <v>35.834663625997699</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="4"/>
+        <v>36.6636259977195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -517,8 +618,35 @@
       <c r="G5" s="1">
         <v>0.39266818700113998</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="5"/>
+        <v>27.602052451539301</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>32.1949828962372</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>34.505131128848397</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>36.784492588369403</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>37.792474344355796</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="4"/>
+        <v>39.266818700114001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -540,8 +668,35 @@
       <c r="G6" s="1">
         <v>0.38618015963511998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>29.793614595210897</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>33.4526795895097</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>35.4925883694413</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="2"/>
+        <v>36.767388825541602</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>37.431014823261101</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>38.618015963512001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -563,13 +718,40 @@
       <c r="G7" s="1">
         <v>0.39587229190421902</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>30.930444697833497</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>34.1322690992018</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>36.0855188141391</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>38.0148232611174</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>38.457240592930496</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
+        <v>39.587229190421901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -588,8 +770,26 @@
       <c r="G12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -611,8 +811,35 @@
       <c r="G13" s="1">
         <v>1.60657068524328E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f>B13*100</f>
+        <v>2.6108512442209899</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13:K18" si="6">C13*100</f>
+        <v>2.7940704368853502</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:L18" si="7">D13*100</f>
+        <v>1.9386229043690899</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:M18" si="8">E13*100</f>
+        <v>1.81260710323712</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N18" si="9">F13*100</f>
+        <v>1.93736731644676</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:O18" si="10">G13*100</f>
+        <v>1.60657068524328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -634,8 +861,35 @@
       <c r="G14" s="1">
         <v>1.9409709703293698E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ref="J14:J18" si="11">B14*100</f>
+        <v>3.4385179720351502</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6646307409595602</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3189624965270399</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1641271882264999</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="9"/>
+        <v>2.6950393304484499</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9409709703293698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -657,8 +911,35 @@
       <c r="G15" s="1">
         <v>3.2205897427908303E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="11"/>
+        <v>4.1377210229919994</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1828381495977904</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="7"/>
+        <v>3.9995534033342204</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3894446149720001</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="9"/>
+        <v>3.18584247907302</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="10"/>
+        <v>3.2205897427908301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -680,8 +961,35 @@
       <c r="G16" s="1">
         <v>1.9953484727785801E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8956307258391301</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8829257439731801</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="7"/>
+        <v>2.51636712161033</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>1.68387756374455</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="9"/>
+        <v>2.00443253641662</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9953484727785802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -703,8 +1011,35 @@
       <c r="G17" s="1">
         <v>1.6095156996321001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4119170899471296</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1976624012879298</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7920672087084402</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="8"/>
+        <v>1.47793316828094</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6088707444813399</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6095156996321001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -725,6 +1060,33 @@
       </c>
       <c r="G18" s="1">
         <v>1.647474093763E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5462717696391102</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="6"/>
+        <v>2.94297258704617</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="7"/>
+        <v>2.09088513846</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7553373692004599</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="9"/>
+        <v>1.95495314164566</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6474740937629999</v>
       </c>
     </row>
   </sheetData>
